--- a/classification/droptc/neo-bert/freeze/52680723/prediction.xlsx
+++ b/classification/droptc/neo-bert/freeze/52680723/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8083478808403015</v>
+        <v>0.903897762298584</v>
       </c>
     </row>
     <row r="3">
@@ -506,19 +506,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5498941540718079</v>
+        <v>0.4504613280296326</v>
       </c>
     </row>
     <row r="4">
@@ -534,7 +534,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -543,10 +543,10 @@
         </is>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8354421854019165</v>
+        <v>0.5634430646896362</v>
       </c>
     </row>
     <row r="5">
@@ -562,7 +562,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -571,10 +571,10 @@
         </is>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4836302399635315</v>
+        <v>0.5118524432182312</v>
       </c>
     </row>
     <row r="6">
@@ -590,19 +590,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4999102652072906</v>
+        <v>0.9590628147125244</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9378178119659424</v>
+        <v>0.6814073920249939</v>
       </c>
     </row>
     <row r="8">
@@ -646,7 +646,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -655,10 +655,10 @@
         </is>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7297294139862061</v>
+        <v>0.9381426572799683</v>
       </c>
     </row>
     <row r="9">
@@ -674,19 +674,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3788249492645264</v>
+        <v>0.8137333393096924</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9565853476524353</v>
+        <v>0.7370211482048035</v>
       </c>
     </row>
     <row r="11">
@@ -730,7 +730,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9497228860855103</v>
+        <v>0.5243003368377686</v>
       </c>
     </row>
     <row r="12">
@@ -758,7 +758,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -767,10 +767,10 @@
         </is>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7654677629470825</v>
+        <v>0.9496600031852722</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.716237485408783</v>
+        <v>0.9664404988288879</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5154184103012085</v>
+        <v>0.3905783295631409</v>
       </c>
     </row>
     <row r="15">
@@ -847,14 +847,14 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5203396677970886</v>
+        <v>0.5075344443321228</v>
       </c>
     </row>
     <row r="16">
@@ -870,19 +870,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>HardwareFault</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>SoftwareFault</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>SoftwareFault</t>
-        </is>
-      </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8391321897506714</v>
+        <v>0.8074128031730652</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3788249492645264</v>
+        <v>0.90240478515625</v>
       </c>
     </row>
     <row r="18">
@@ -926,7 +926,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3939403295516968</v>
+        <v>0.8031191825866699</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7853907942771912</v>
+        <v>0.5118524432182312</v>
       </c>
     </row>
     <row r="20">
@@ -987,14 +987,14 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9378178119659424</v>
+        <v>0.4600204527378082</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8760925531387329</v>
+        <v>0.8366237282752991</v>
       </c>
     </row>
     <row r="22">
@@ -1038,19 +1038,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E22" t="b">
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4791485667228699</v>
+        <v>0.9363857507705688</v>
       </c>
     </row>
     <row r="23">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6437613368034363</v>
+        <v>0.7558208703994751</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6730481386184692</v>
+        <v>0.897713840007782</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.6632767915725708</v>
+        <v>0.7647355198860168</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5203396677970886</v>
+        <v>0.6551353335380554</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9688951373100281</v>
+        <v>0.9247517585754395</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9706861972808838</v>
+        <v>0.6604793667793274</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9610702991485596</v>
+        <v>0.6128917336463928</v>
       </c>
     </row>
     <row r="30">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1271,10 +1271,10 @@
         </is>
       </c>
       <c r="E30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7096468806266785</v>
+        <v>0.6992288827896118</v>
       </c>
     </row>
     <row r="31">
@@ -1290,19 +1290,19 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E31" t="b">
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9217507839202881</v>
+        <v>0.5239565968513489</v>
       </c>
     </row>
     <row r="32">
@@ -1318,19 +1318,19 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E32" t="b">
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8493021130561829</v>
+        <v>0.7335564494132996</v>
       </c>
     </row>
     <row r="33">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9655225872993469</v>
+        <v>0.4977859854698181</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9378178119659424</v>
+        <v>0.8314357399940491</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9378178119659424</v>
+        <v>0.7033702731132507</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9610159993171692</v>
+        <v>0.7747712135314941</v>
       </c>
     </row>
     <row r="37">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4326611757278442</v>
+        <v>0.7603931427001953</v>
       </c>
     </row>
     <row r="38">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1495,10 +1495,10 @@
         </is>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.699696958065033</v>
+        <v>0.9343779683113098</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8247070908546448</v>
+        <v>0.9549568295478821</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E40" t="b">
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9208796620368958</v>
+        <v>0.4253374934196472</v>
       </c>
     </row>
     <row r="41">
@@ -1570,19 +1570,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.5518379807472229</v>
+        <v>0.6027446389198303</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E42" t="b">
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.4980758726596832</v>
+        <v>0.948331356048584</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.7096589803695679</v>
+        <v>0.9553108811378479</v>
       </c>
     </row>
     <row r="44">
@@ -1659,14 +1659,14 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4021060168743134</v>
+        <v>0.9247517585754395</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8682397603988647</v>
+        <v>0.9094705581665039</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.828207790851593</v>
+        <v>0.968220591545105</v>
       </c>
     </row>
     <row r="47">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7454019784927368</v>
+        <v>0.5038946866989136</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.8513959646224976</v>
+        <v>0.9103017449378967</v>
       </c>
     </row>
     <row r="49">
@@ -1794,19 +1794,19 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E49" t="b">
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.4757444560527802</v>
+        <v>0.8070228099822998</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.7641497850418091</v>
+        <v>0.9163110852241516</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0.6213806867599487</v>
+        <v>0.6503627896308899</v>
       </c>
     </row>
     <row r="52">
@@ -1878,19 +1878,19 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E52" t="b">
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.929438591003418</v>
+        <v>0.679294764995575</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.7053418755531311</v>
+        <v>0.5119390487670898</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>0.4472375214099884</v>
+        <v>0.9478740692138672</v>
       </c>
     </row>
     <row r="55">
@@ -1962,19 +1962,19 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>SoftwareFault</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Normal</t>
         </is>
       </c>
       <c r="E55" t="b">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0.5125277638435364</v>
+        <v>0.3858786523342133</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.6224995851516724</v>
+        <v>0.695975661277771</v>
       </c>
     </row>
     <row r="57">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2027,10 +2027,10 @@
         </is>
       </c>
       <c r="E57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7600646615028381</v>
+        <v>0.4861017167568207</v>
       </c>
     </row>
     <row r="58">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0.3247043788433075</v>
+        <v>0.4339257776737213</v>
       </c>
     </row>
     <row r="59">
@@ -2074,19 +2074,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E59" t="b">
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9243894815444946</v>
+        <v>0.8536112904548645</v>
       </c>
     </row>
     <row r="60">
@@ -2102,19 +2102,19 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E60" t="b">
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.5203396677970886</v>
+        <v>0.8907231688499451</v>
       </c>
     </row>
     <row r="61">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2139,10 +2139,10 @@
         </is>
       </c>
       <c r="E61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.3884379863739014</v>
+        <v>0.8798348903656006</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.7778666615486145</v>
+        <v>0.4328122735023499</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9604416489601135</v>
+        <v>0.4018080532550812</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9610702991485596</v>
+        <v>0.8517270684242249</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.802747368812561</v>
+        <v>0.8485990762710571</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9378178119659424</v>
+        <v>0.9221499562263489</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9378178119659424</v>
+        <v>0.8826388120651245</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.4785155951976776</v>
+        <v>0.4945585429668427</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.7484671473503113</v>
+        <v>0.9335509538650513</v>
       </c>
     </row>
     <row r="70">
@@ -2382,19 +2382,19 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E70" t="b">
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9555691480636597</v>
+        <v>0.4871347844600677</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.7574840784072876</v>
+        <v>0.8412964344024658</v>
       </c>
     </row>
     <row r="72">
@@ -2438,19 +2438,19 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E72" t="b">
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.8231579065322876</v>
+        <v>0.6691796183586121</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.903229832649231</v>
+        <v>0.5945767760276794</v>
       </c>
     </row>
     <row r="74">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2503,10 +2503,10 @@
         </is>
       </c>
       <c r="E74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.6439342498779297</v>
+        <v>0.9506946206092834</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9593504071235657</v>
+        <v>0.8451820015907288</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.8393717408180237</v>
+        <v>0.8790060877799988</v>
       </c>
     </row>
     <row r="77">
@@ -2578,19 +2578,19 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E77" t="b">
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.8364729285240173</v>
+        <v>0.4630506634712219</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9831650257110596</v>
+        <v>0.8646204471588135</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.8821849822998047</v>
+        <v>0.6627088785171509</v>
       </c>
     </row>
     <row r="80">
@@ -2662,19 +2662,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E80" t="b">
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.7853907942771912</v>
+        <v>0.7335564494132996</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.8700818419456482</v>
+        <v>0.6627088785171509</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.5911749601364136</v>
+        <v>0.7335564494132996</v>
       </c>
     </row>
     <row r="83">
@@ -2746,19 +2746,19 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E83" t="b">
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.3974263072013855</v>
+        <v>0.5708024501800537</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.4008449912071228</v>
+        <v>0.8342261910438538</v>
       </c>
     </row>
     <row r="85">
@@ -2802,19 +2802,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E85" t="b">
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.43935626745224</v>
+        <v>0.423769474029541</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.6513535380363464</v>
+        <v>0.9324573278427124</v>
       </c>
     </row>
     <row r="87">
@@ -2858,19 +2858,19 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E87" t="b">
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.7306404113769531</v>
+        <v>0.9852951765060425</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.696035623550415</v>
+        <v>0.5908592343330383</v>
       </c>
     </row>
     <row r="89">
@@ -2914,19 +2914,19 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E89" t="b">
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.7554668784141541</v>
+        <v>0.9247517585754395</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9378178119659424</v>
+        <v>0.7527675032615662</v>
       </c>
     </row>
     <row r="91">
@@ -2970,19 +2970,19 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E91" t="b">
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9550797939300537</v>
+        <v>0.3829855024814606</v>
       </c>
     </row>
     <row r="92">
@@ -2998,7 +2998,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3007,10 +3007,10 @@
         </is>
       </c>
       <c r="E92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.4018666446208954</v>
+        <v>0.5298060774803162</v>
       </c>
     </row>
     <row r="93">
@@ -3026,19 +3026,19 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>0.7182374000549316</v>
+        <v>0.3602938055992126</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.991970419883728</v>
+        <v>0.6720370054244995</v>
       </c>
     </row>
     <row r="95">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3091,10 +3091,10 @@
         </is>
       </c>
       <c r="E95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>0.916209876537323</v>
+        <v>0.7343846559524536</v>
       </c>
     </row>
     <row r="96">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>0.621003270149231</v>
+        <v>0.6257933378219604</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.7956230044364929</v>
+        <v>0.9247517585754395</v>
       </c>
     </row>
     <row r="98">
@@ -3166,19 +3166,19 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E98" t="b">
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9217507839202881</v>
+        <v>0.6661781072616577</v>
       </c>
     </row>
     <row r="99">
@@ -3194,19 +3194,19 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E99" t="b">
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5972179174423218</v>
+        <v>0.8137333393096924</v>
       </c>
     </row>
     <row r="100">
@@ -3222,7 +3222,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3231,10 +3231,10 @@
         </is>
       </c>
       <c r="E100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>0.8995890021324158</v>
+        <v>0.4767242670059204</v>
       </c>
     </row>
     <row r="101">
@@ -3250,19 +3250,19 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5511196255683899</v>
+        <v>0.3829855024814606</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.7661871910095215</v>
+        <v>0.8673983812332153</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.4133843183517456</v>
+        <v>0.8876685500144958</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.8600553274154663</v>
+        <v>0.6939553022384644</v>
       </c>
     </row>
     <row r="105">
@@ -3362,7 +3362,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3371,10 +3371,10 @@
         </is>
       </c>
       <c r="E105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>0.7499625086784363</v>
+        <v>0.5651714205741882</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.8222122192382812</v>
+        <v>0.8512362241744995</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.4826361536979675</v>
+        <v>0.7621691823005676</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.5055290460586548</v>
+        <v>0.8475907444953918</v>
       </c>
     </row>
     <row r="109">
@@ -3474,19 +3474,19 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>0.4757444560527802</v>
+        <v>0.3096057772636414</v>
       </c>
     </row>
     <row r="110">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3511,10 +3511,10 @@
         </is>
       </c>
       <c r="E110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.6544837355613708</v>
+        <v>0.870012104511261</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.8473323583602905</v>
+        <v>0.9554277658462524</v>
       </c>
     </row>
     <row r="112">
@@ -3563,14 +3563,14 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>0.7252576351165771</v>
+        <v>0.3771442472934723</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.3901916146278381</v>
+        <v>0.423769474029541</v>
       </c>
     </row>
     <row r="114">
@@ -3614,19 +3614,19 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E114" t="b">
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.2825218439102173</v>
+        <v>0.9247517585754395</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9378178119659424</v>
+        <v>0.9247517585754395</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.8207299113273621</v>
+        <v>0.8339601755142212</v>
       </c>
     </row>
     <row r="117">
@@ -3698,19 +3698,19 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E117" t="b">
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.8745982050895691</v>
+        <v>0.423769474029541</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E118" t="b">
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.3753398954868317</v>
+        <v>0.8752244710922241</v>
       </c>
     </row>
     <row r="119">
@@ -3754,19 +3754,19 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E119" t="b">
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.4739542901515961</v>
+        <v>0.5859816670417786</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.5567277073860168</v>
+        <v>0.9247517585754395</v>
       </c>
     </row>
     <row r="121">
@@ -3810,7 +3810,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3819,10 +3819,10 @@
         </is>
       </c>
       <c r="E121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>0.7852211594581604</v>
+        <v>0.5745443105697632</v>
       </c>
     </row>
     <row r="122">
@@ -3838,19 +3838,19 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E122" t="b">
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.6146852970123291</v>
+        <v>0.8242281079292297</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.6094714403152466</v>
+        <v>0.9706522822380066</v>
       </c>
     </row>
     <row r="124">
@@ -3894,19 +3894,19 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E124" t="b">
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.6698758006095886</v>
+        <v>0.5459766983985901</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.5386305451393127</v>
+        <v>0.3745666742324829</v>
       </c>
     </row>
     <row r="126">
@@ -3955,14 +3955,14 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.3542820513248444</v>
+        <v>0.5847055315971375</v>
       </c>
     </row>
     <row r="127">
@@ -3978,19 +3978,19 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E127" t="b">
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.7554668784141541</v>
+        <v>0.8155805468559265</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.81972736120224</v>
+        <v>0.7889718413352966</v>
       </c>
     </row>
     <row r="129">
@@ -4034,19 +4034,19 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E129" t="b">
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.3767922818660736</v>
+        <v>0.770646333694458</v>
       </c>
     </row>
     <row r="130">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4071,10 +4071,10 @@
         </is>
       </c>
       <c r="E130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.6221538186073303</v>
+        <v>0.7862752079963684</v>
       </c>
     </row>
     <row r="131">
@@ -4090,19 +4090,19 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E131" t="b">
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.3975576460361481</v>
+        <v>0.8246433138847351</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9096447825431824</v>
+        <v>0.6627088785171509</v>
       </c>
     </row>
     <row r="133">
@@ -4146,19 +4146,19 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E133" t="b">
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9539830088615417</v>
+        <v>0.9104070663452148</v>
       </c>
     </row>
     <row r="134">
@@ -4179,14 +4179,14 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9164506196975708</v>
+        <v>0.4108076989650726</v>
       </c>
     </row>
     <row r="135">
@@ -4202,7 +4202,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4211,10 +4211,10 @@
         </is>
       </c>
       <c r="E135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9091532826423645</v>
+        <v>0.4944368600845337</v>
       </c>
     </row>
     <row r="136">
@@ -4230,19 +4230,19 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E136" t="b">
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.3975576460361481</v>
+        <v>0.8506844043731689</v>
       </c>
     </row>
     <row r="137">
@@ -4258,19 +4258,19 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.6464698910713196</v>
+        <v>0.8287983536720276</v>
       </c>
     </row>
     <row r="138">
@@ -4291,14 +4291,14 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E138" t="b">
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>0.5037597417831421</v>
+        <v>0.5117297172546387</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9259652495384216</v>
+        <v>0.9429323077201843</v>
       </c>
     </row>
     <row r="140">
@@ -4342,19 +4342,19 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E140" t="b">
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.4728617966175079</v>
+        <v>0.6346703171730042</v>
       </c>
     </row>
     <row r="141">
@@ -4370,19 +4370,19 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E141" t="b">
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.8960246443748474</v>
+        <v>0.4518648087978363</v>
       </c>
     </row>
     <row r="142">
@@ -4398,7 +4398,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4407,10 +4407,10 @@
         </is>
       </c>
       <c r="E142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>0.8273695707321167</v>
+        <v>0.6060689091682434</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.4738113284111023</v>
+        <v>0.9627842307090759</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.961845338344574</v>
+        <v>0.5925160050392151</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.503071129322052</v>
+        <v>0.9025500416755676</v>
       </c>
     </row>
     <row r="146">
@@ -4510,19 +4510,19 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.4442293643951416</v>
+        <v>0.8219566941261292</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.802747368812561</v>
+        <v>0.8823708891868591</v>
       </c>
     </row>
     <row r="148">
@@ -4566,7 +4566,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4575,10 +4575,10 @@
         </is>
       </c>
       <c r="E148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.5051309466362</v>
+        <v>0.897713840007782</v>
       </c>
     </row>
     <row r="149">
@@ -4594,7 +4594,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4603,10 +4603,10 @@
         </is>
       </c>
       <c r="E149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9378178119659424</v>
+        <v>0.4003092646598816</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.7579325437545776</v>
+        <v>0.8302361369132996</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.8209801912307739</v>
+        <v>0.5103430151939392</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E152" t="b">
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.8687252402305603</v>
+        <v>0.8137333393096924</v>
       </c>
     </row>
     <row r="153">
@@ -4706,19 +4706,19 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E153" t="b">
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.8292484283447266</v>
+        <v>0.5968068838119507</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.6627504825592041</v>
+        <v>0.904059886932373</v>
       </c>
     </row>
     <row r="155">
@@ -4762,19 +4762,19 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.5080556273460388</v>
+        <v>0.4970801770687103</v>
       </c>
     </row>
     <row r="156">
@@ -4795,14 +4795,14 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.4638935923576355</v>
+        <v>0.9004700779914856</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.8379144668579102</v>
+        <v>0.8362738490104675</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.8674547076225281</v>
+        <v>0.719817042350769</v>
       </c>
     </row>
     <row r="159">
@@ -4874,19 +4874,19 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E159" t="b">
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.5691381692886353</v>
+        <v>0.4935974776744843</v>
       </c>
     </row>
     <row r="160">
@@ -4902,19 +4902,19 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E160" t="b">
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.535086989402771</v>
+        <v>0.8201087713241577</v>
       </c>
     </row>
     <row r="161">
@@ -4930,19 +4930,19 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E161" t="b">
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.6450055837631226</v>
+        <v>0.9025500416755676</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>1</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9707126021385193</v>
+        <v>0.9344921708106995</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.762016236782074</v>
+        <v>0.7227301597595215</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9541250467300415</v>
+        <v>0.7905566692352295</v>
       </c>
     </row>
     <row r="165">
@@ -5042,19 +5042,19 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E165" t="b">
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.6326504945755005</v>
+        <v>0.9278348684310913</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.756725549697876</v>
+        <v>0.8120445609092712</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.8571887612342834</v>
+        <v>0.9487186074256897</v>
       </c>
     </row>
     <row r="168">
@@ -5126,19 +5126,19 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E168" t="b">
         <v>1</v>
       </c>
       <c r="F168" t="n">
-        <v>0.4441292583942413</v>
+        <v>0.7111933827400208</v>
       </c>
     </row>
     <row r="169">
@@ -5154,19 +5154,19 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E169" t="b">
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9350173473358154</v>
+        <v>0.3745666742324829</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>0.8391321897506714</v>
+        <v>0.6794683933258057</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>1</v>
       </c>
       <c r="F171" t="n">
-        <v>0.6487089991569519</v>
+        <v>0.8627617955207825</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.8620923161506653</v>
+        <v>0.9331591725349426</v>
       </c>
     </row>
     <row r="173">
@@ -5266,7 +5266,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5278,7 +5278,7 @@
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>0.3102940917015076</v>
+        <v>0.7017243504524231</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.8700049519538879</v>
+        <v>0.9073264002799988</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.5933001041412354</v>
+        <v>0.8896241784095764</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.5533017516136169</v>
+        <v>0.4384326934814453</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.7095666527748108</v>
+        <v>0.6987953186035156</v>
       </c>
     </row>
     <row r="178">
@@ -5406,19 +5406,19 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E178" t="b">
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.7853907942771912</v>
+        <v>0.5119390487670898</v>
       </c>
     </row>
     <row r="179">
@@ -5434,19 +5434,19 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E179" t="b">
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9563272595405579</v>
+        <v>0.5713868141174316</v>
       </c>
     </row>
     <row r="180">
@@ -5462,19 +5462,19 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E180" t="b">
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.7031205892562866</v>
+        <v>0.7716220617294312</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.415401965379715</v>
+        <v>0.723425567150116</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9405987858772278</v>
+        <v>0.9487186074256897</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.7944394946098328</v>
+        <v>0.9101154804229736</v>
       </c>
     </row>
     <row r="184">
@@ -5574,19 +5574,19 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E184" t="b">
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.7252576351165771</v>
+        <v>0.8162837028503418</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.8612337708473206</v>
+        <v>0.816081702709198</v>
       </c>
     </row>
     <row r="186">
@@ -5630,19 +5630,19 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.5849875807762146</v>
+        <v>0.332375705242157</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.8031851053237915</v>
+        <v>0.8412951827049255</v>
       </c>
     </row>
     <row r="188">
@@ -5686,19 +5686,19 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E188" t="b">
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.8417440056800842</v>
+        <v>0.827665388584137</v>
       </c>
     </row>
     <row r="189">
@@ -5714,19 +5714,19 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>0.7252576351165771</v>
+        <v>0.6002817153930664</v>
       </c>
     </row>
     <row r="190">
@@ -5742,7 +5742,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5751,10 +5751,10 @@
         </is>
       </c>
       <c r="E190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.4475770890712738</v>
+        <v>0.5335797667503357</v>
       </c>
     </row>
     <row r="191">
@@ -5775,14 +5775,14 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9010603427886963</v>
+        <v>0.4586955606937408</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.8887050747871399</v>
+        <v>0.6898433566093445</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9135679006576538</v>
+        <v>0.9221499562263489</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.7554668784141541</v>
+        <v>0.7804493308067322</v>
       </c>
     </row>
     <row r="195">
@@ -5882,19 +5882,19 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E195" t="b">
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.7528043389320374</v>
+        <v>0.9238104224205017</v>
       </c>
     </row>
     <row r="196">
@@ -5910,19 +5910,19 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E196" t="b">
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9200946688652039</v>
+        <v>0.8536112904548645</v>
       </c>
     </row>
     <row r="197">
@@ -5938,19 +5938,19 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E197" t="b">
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.682648241519928</v>
+        <v>0.4588257670402527</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9458490014076233</v>
+        <v>0.6223417520523071</v>
       </c>
     </row>
     <row r="199">
@@ -5994,7 +5994,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -6003,10 +6003,10 @@
         </is>
       </c>
       <c r="E199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.4914770424365997</v>
+        <v>0.5307081341743469</v>
       </c>
     </row>
     <row r="200">
@@ -6022,7 +6022,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -6031,10 +6031,10 @@
         </is>
       </c>
       <c r="E200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9088032841682434</v>
+        <v>0.3992528021335602</v>
       </c>
     </row>
     <row r="201">
@@ -6050,7 +6050,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -6059,10 +6059,10 @@
         </is>
       </c>
       <c r="E201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.3798388838768005</v>
+        <v>0.5631682276725769</v>
       </c>
     </row>
     <row r="202">
@@ -6078,7 +6078,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -6087,10 +6087,10 @@
         </is>
       </c>
       <c r="E202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F202" t="n">
-        <v>0.7083860039710999</v>
+        <v>0.7866007685661316</v>
       </c>
     </row>
     <row r="203">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -6115,10 +6115,10 @@
         </is>
       </c>
       <c r="E203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.6898691654205322</v>
+        <v>0.9440984129905701</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.4441292583942413</v>
+        <v>0.4743609130382538</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.8908553123474121</v>
+        <v>0.9247517585754395</v>
       </c>
     </row>
     <row r="206">
@@ -6190,19 +6190,19 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E206" t="b">
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.4643362760543823</v>
+        <v>0.4616487920284271</v>
       </c>
     </row>
     <row r="207">
@@ -6218,7 +6218,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -6227,10 +6227,10 @@
         </is>
       </c>
       <c r="E207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.5195571780204773</v>
+        <v>0.7635738253593445</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.8030292391777039</v>
+        <v>0.9247517585754395</v>
       </c>
     </row>
     <row r="209">
@@ -6274,7 +6274,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -6283,10 +6283,10 @@
         </is>
       </c>
       <c r="E209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9706861972808838</v>
+        <v>0.5361065268516541</v>
       </c>
     </row>
     <row r="210">
@@ -6302,7 +6302,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -6311,10 +6311,10 @@
         </is>
       </c>
       <c r="E210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F210" t="n">
-        <v>0.8086134791374207</v>
+        <v>0.816457211971283</v>
       </c>
     </row>
   </sheetData>
